--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,10 +49,16 @@
     <t>thin</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>pool</t>
   </si>
   <si>
     <t>waste</t>
@@ -61,159 +67,156 @@
     <t>broke</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>ok</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -223,24 +226,24 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -250,46 +253,52 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>birthday</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cute</t>
+    <t>nice</t>
   </si>
   <si>
     <t>playing</t>
@@ -659,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>0.8494623655913979</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7150537634408602</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6756756756756757</v>
+        <v>0.703125</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6699029126213593</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.5797101449275363</v>
+        <v>0.563845050215208</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1096,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.5753228120516499</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L10">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>296</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65625</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.5477178423236515</v>
+        <v>0.533195020746888</v>
       </c>
       <c r="L11">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M11">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1170,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1196,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.4614754098360656</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L12">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="M12">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1220,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>657</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>0.382262996941896</v>
@@ -1278,13 +1287,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6285714285714286</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.3756613756613756</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L14">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,16 +1358,16 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.3583333333333333</v>
+        <v>0.3544973544973545</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5462184873949579</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1396,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>0.3313253012048193</v>
+        <v>0.325</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,13 +1437,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5246376811594203</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1446,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.2734375</v>
+        <v>0.265625</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1470,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1478,13 +1487,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5060240963855421</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.248</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1528,38 +1537,38 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4814814814814815</v>
+        <v>0.4597156398104265</v>
       </c>
       <c r="C19">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>97</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>114</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="L19">
         <v>26</v>
       </c>
-      <c r="D19">
+      <c r="M19">
         <v>26</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>28</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19">
-        <v>0.2409638554216867</v>
-      </c>
-      <c r="L19">
-        <v>60</v>
-      </c>
-      <c r="M19">
-        <v>60</v>
-      </c>
       <c r="N19">
         <v>1</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,13 +1587,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4251968503937008</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C20">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1596,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.2365591397849462</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1620,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,13 +1637,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.421875</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1646,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.2167832167832168</v>
+        <v>0.2</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1670,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1678,13 +1687,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4166666666666667</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.1904761904761905</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1720,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1728,13 +1737,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4126984126984127</v>
+        <v>0.40625</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.1833333333333333</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L23">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>931</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1778,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4105263157894737</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1796,31 +1805,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.1131339401820546</v>
+        <v>0.1638913234005259</v>
       </c>
       <c r="L24">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M24">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1364</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,13 +1837,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.40625</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1846,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.1030640668523677</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1870,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>322</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1878,13 +1887,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1896,31 +1905,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.09893048128342247</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>337</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1928,13 +1937,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3838862559241706</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C27">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1946,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.0933852140077821</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1970,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>233</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,13 +1987,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3809523809523809</v>
+        <v>0.359375</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1996,31 +2005,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.0804953560371517</v>
+        <v>0.09217877094972067</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2028,13 +2037,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3483146067415731</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2046,31 +2055,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.07466666666666667</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>694</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2078,13 +2087,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3283582089552239</v>
+        <v>0.3217821782178218</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2096,31 +2105,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>0.048582995951417</v>
+        <v>0.08024691358024691</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>470</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2128,13 +2137,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3076923076923077</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2146,7 +2155,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31">
+        <v>0.07466666666666667</v>
+      </c>
+      <c r="L31">
+        <v>56</v>
+      </c>
+      <c r="M31">
+        <v>58</v>
+      </c>
+      <c r="N31">
+        <v>0.97</v>
+      </c>
+      <c r="O31">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,25 +2187,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3069306930693069</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>62</v>
       </c>
-      <c r="D32">
-        <v>62</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>140</v>
+      <c r="J32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32">
+        <v>0.05252525252525252</v>
+      </c>
+      <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>0.84</v>
+      </c>
+      <c r="O32">
+        <v>0.16</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2180,13 +2237,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2653061224489796</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2198,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2206,13 +2263,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2628865979381443</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2224,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2232,13 +2289,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2393162393162393</v>
+        <v>0.22</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2250,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2258,25 +2315,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1965317919075145</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C36">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>278</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2284,25 +2341,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1942446043165468</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E37">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>112</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2310,13 +2367,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.19</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2328,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>162</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2336,13 +2393,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1884057971014493</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C39">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2354,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2362,25 +2419,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1867088607594937</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>257</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2388,25 +2445,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1827637444279346</v>
+        <v>0.1822429906542056</v>
       </c>
       <c r="C41">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>550</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2414,13 +2471,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1714285714285714</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C42">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D42">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>0.02</v>
@@ -2432,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2440,25 +2497,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1592356687898089</v>
+        <v>0.1797919762258544</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>132</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2466,13 +2523,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1387665198237885</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C44">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2484,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>391</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2492,13 +2549,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1330645161290323</v>
+        <v>0.1607929515418502</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2510,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>215</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2518,13 +2575,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1314285714285714</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2536,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2544,13 +2601,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1308900523560209</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2562,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>166</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2570,25 +2627,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1308411214953271</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>186</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2596,25 +2653,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1240601503759398</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>233</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2622,13 +2679,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1202185792349727</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2640,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2648,25 +2705,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1182795698924731</v>
+        <v>0.1271676300578035</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F51">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2674,25 +2731,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1182795698924731</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D52">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F52">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>246</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2700,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1046831955922865</v>
+        <v>0.1178861788617886</v>
       </c>
       <c r="C53">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E53">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F53">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>325</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2726,25 +2783,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.09821428571428571</v>
+        <v>0.1098591549295775</v>
       </c>
       <c r="C54">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E54">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>404</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2752,25 +2809,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09405940594059406</v>
+        <v>0.1049107142857143</v>
       </c>
       <c r="C55">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D55">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>549</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2778,25 +2835,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09148264984227129</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="C56">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2804,25 +2861,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0903954802259887</v>
+        <v>0.08925619834710743</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E57">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F57">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>322</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2830,25 +2887,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08</v>
+        <v>0.07278481012658228</v>
       </c>
       <c r="C58">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="F58">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>391</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2856,25 +2913,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05990783410138249</v>
+        <v>0.07151979565772669</v>
       </c>
       <c r="C59">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D59">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E59">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="F59">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>612</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2882,25 +2939,51 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.05597964376590331</v>
+        <v>0.0598159509202454</v>
       </c>
       <c r="C60">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D60">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E60">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F60">
-        <v>0.85</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>742</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>34</v>
+      </c>
+      <c r="E61">
+        <v>0.26</v>
+      </c>
+      <c r="F61">
+        <v>0.74</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
